--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>552429.2791507374</v>
+        <v>576361.3121643836</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514385</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5477185.456223349</v>
+        <v>5477185.456223348</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>26.18187459043808</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -914,7 +914,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -978,25 +978,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>142.0207091502683</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>55.75114109024454</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1187,7 +1187,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>90.38893773807641</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1233,7 +1233,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>49.23175083062941</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,64 +1607,64 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>33.93991708044859</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1850,17 +1850,17 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>52.42556848774763</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>42.69081075663318</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2318,70 +2318,70 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>177.1187638115703</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>89.14450579973429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E26" t="n">
-        <v>200.3360962888295</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>29.79900896488246</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>49.31110394229507</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>212.2853856434422</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2922,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>49.31110394229507</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,10 +2934,10 @@
         <v>241.014288877659</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>34.66067414728042</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>241.014288877659</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>241.014288877659</v>
+      </c>
+      <c r="G32" t="n">
+        <v>241.014288877659</v>
+      </c>
+      <c r="H32" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="D32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>96.78886321333593</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>62.4162677022923</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>63.14223173826431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3585,25 +3585,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>146.1932996118733</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>202.2946864288974</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="42">
@@ -3822,25 +3822,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>127.9826185018312</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>90.16066412513239</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4361,19 +4361,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4419,13 +4419,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4446,13 +4446,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4547,19 +4547,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E5" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325.8866438408374</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C6" t="n">
-        <v>325.8866438408374</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D6" t="n">
-        <v>325.8866438408374</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E6" t="n">
-        <v>166.6491888353819</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>166.6491888353819</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>166.6491888353819</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>533.6469426057913</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>533.6469426057913</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y6" t="n">
-        <v>325.8866438408374</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4860,46 +4860,46 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
         <v>136.0777814360265</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E11" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5151,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>619.4388494194218</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X12" t="n">
-        <v>569.7098081763618</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>361.9495094114078</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C14" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V14" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W14" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X14" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y14" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5397,10 +5397,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="16">
@@ -5461,10 +5461,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
         <v>19.28114311021272</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>133.4044113554191</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>133.4044113554191</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>133.4044113554191</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>133.4044113554191</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>133.4044113554191</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>819.7655949962157</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>584.613486764473</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>341.164710120373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>341.164710120373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>133.4044113554191</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5704,10 +5704,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5874,7 +5874,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5935,10 +5935,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="G23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="H23" t="n">
+        <v>233.7108255783361</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21.10891692136039</v>
+      </c>
+      <c r="J23" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J23" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6026,13 +6026,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
         <v>20.03527576299844</v>
@@ -6072,46 +6072,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>510.5624392802814</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="W24" t="n">
-        <v>492.3847606029253</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="X24" t="n">
-        <v>284.5332603973924</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>282.3388210166704</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.159602222436</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="C26" t="n">
-        <v>233.710825578336</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="D26" t="n">
-        <v>233.710825578336</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.057155510636</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R26" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S26" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T26" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U26" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V26" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W26" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X26" t="n">
-        <v>964.057155510636</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.608378866536</v>
+        <v>710.5167634983089</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299843</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299843</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299843</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299843</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>542.8095319084027</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>542.8095319084027</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972852</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P27" t="n">
         <v>964.057155510636</v>
@@ -6336,19 +6336,19 @@
         <v>964.057155510636</v>
       </c>
       <c r="U27" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V27" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W27" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X27" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299843</v>
+        <v>49.38115216564955</v>
       </c>
     </row>
     <row r="28">
@@ -6415,10 +6415,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.608378866536</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.159602222436</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.710825578336</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6497,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.6274730425127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6549,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084243</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q30" t="n">
         <v>964.057155510636</v>
@@ -6570,19 +6570,19 @@
         <v>964.057155510636</v>
       </c>
       <c r="T30" t="n">
-        <v>964.057155510636</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U30" t="n">
-        <v>914.2479596093278</v>
+        <v>533.6469426057911</v>
       </c>
       <c r="V30" t="n">
-        <v>679.0958513775852</v>
+        <v>298.4948343740484</v>
       </c>
       <c r="W30" t="n">
-        <v>435.6470747334852</v>
+        <v>55.04605772994836</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="Y30" t="n">
         <v>20.03527576299843</v>
@@ -6652,10 +6652,10 @@
         <v>964.057155510636</v>
       </c>
       <c r="U31" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="V31" t="n">
-        <v>964.057155510636</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="W31" t="n">
         <v>829.5248650203653</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.608378866536</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.608378866536</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.159602222436</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.710825578336</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6710,40 +6710,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>460.2013944139663</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565421</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247994</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>619.4388494194218</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6889,7 +6889,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6944,43 +6944,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830062</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,43 +7023,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>900.2771234517832</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.859778902452</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.859778902452</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>498.6361606388411</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>263.4840524070984</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="37">
@@ -7120,16 +7120,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.608378866536</v>
       </c>
       <c r="C38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.608378866536</v>
       </c>
       <c r="D38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.608378866536</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.608378866536</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.159602222436</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.710825578336</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7190,34 +7190,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>816.3871559026832</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>710.5167634983092</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>467.0679868542092</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>467.0679868542092</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101091</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>710.5167634983092</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>547.1910343172049</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>547.1910343172049</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>234.8108274061909</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>547.1910343172049</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>547.1910343172049</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>547.1910343172049</v>
       </c>
     </row>
     <row r="43">
@@ -7594,19 +7594,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.159602222436</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.159602222436</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.159602222436</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.159602222436</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.710825578336</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7646,7 +7646,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
         <v>122.2961490211351</v>
@@ -7661,37 +7661,37 @@
         <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.159602222436</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>111.1066536671726</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063792</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195203</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>761.870560869402</v>
       </c>
       <c r="V45" t="n">
-        <v>399.5118995681682</v>
+        <v>526.7184526376593</v>
       </c>
       <c r="W45" t="n">
-        <v>156.0631229240681</v>
+        <v>526.7184526376593</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>318.8669524321265</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>111.1066536671726</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>371.3463732493024</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,13 +9492,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,7 +9720,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0408247018198</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221034</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221034</v>
@@ -10209,7 +10209,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928323</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879872</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>229.637333555774</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627451</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661622</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,7 +22556,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,25 +22623,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>86.05356964605838</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22686,13 +22686,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22726,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,10 +22787,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E5" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -22802,7 +22802,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22866,25 +22866,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>5.424356414370408</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>56.48430314625192</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,22 +22914,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22951,7 +22951,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22963,7 +22963,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23027,7 +23027,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23075,7 +23075,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>160.9567151697601</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23261,19 +23261,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,19 +23391,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>156.5412343728481</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,16 +23455,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23495,28 +23495,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>298.998522982632</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,13 +23537,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,7 +23552,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>111.1292953129353</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23637,10 +23637,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23701,13 +23701,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>287.0492336280195</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23865,19 +23865,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>183.2505713243416</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23944,13 +23944,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24175,13 +24175,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,28 +24206,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,10 +24285,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,7 +24300,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>23.04596488325129</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.5381899775701</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933486</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E26" t="n">
-        <v>181.5942737834323</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24531,7 +24531,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>115.2702034285014</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,7 +24576,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>176.6302781386798</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24655,13 +24655,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,16 +24683,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716931</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266927</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24810,10 +24810,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>176.6302781386798</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,10 +24822,10 @@
         <v>10.68069428326061</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>171.1123110561971</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24892,13 +24892,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,10 +24917,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,10 +24929,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.1894164723251</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -25002,22 +25002,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>48.28034918004795</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25129,10 +25129,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>286.8247010151207</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>37.01560241437883</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25293,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>127.1894164723251</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25473,25 +25473,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>53.9714290829483</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>204.581359312814</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,7 +25685,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="42">
@@ -25710,25 +25710,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>19.46244706280756</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25877,7 +25877,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716931</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>82.54783486318335</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473677.0066044414</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="15">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24205.28078224311</v>
+        <v>-21344.88553779096</v>
       </c>
       <c r="C6" t="n">
-        <v>56564.15074930463</v>
+        <v>59424.54599375678</v>
       </c>
       <c r="D6" t="n">
-        <v>56564.15074930464</v>
+        <v>59424.54599375679</v>
       </c>
       <c r="E6" t="n">
-        <v>90191.75074930463</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="F6" t="n">
-        <v>90191.75074930463</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="G6" t="n">
-        <v>90191.75074930464</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="H6" t="n">
-        <v>90191.75074930466</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="I6" t="n">
-        <v>90191.75074930464</v>
+        <v>93052.1459937568</v>
       </c>
       <c r="J6" t="n">
-        <v>27131.80815019842</v>
+        <v>29992.20339465057</v>
       </c>
       <c r="K6" t="n">
-        <v>90191.75074930463</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="L6" t="n">
-        <v>90191.75074930461</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="M6" t="n">
-        <v>90191.75074930461</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="N6" t="n">
-        <v>90191.75074930461</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="O6" t="n">
-        <v>90191.75074930463</v>
+        <v>93052.14599375683</v>
       </c>
       <c r="P6" t="n">
-        <v>90191.75074930461</v>
+        <v>93052.14599375683</v>
       </c>
     </row>
   </sheetData>
@@ -26817,19 +26817,19 @@
         <v>241.014288877659</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,13 +35498,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O12" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,7 +35735,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>240.0046611659691</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,13 +36212,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798015</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O27" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9091475161414</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N30" t="n">
-        <v>241.014288877659</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O30" t="n">
         <v>241.014288877659</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655595</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37391,13 +37391,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621288</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>91.08295377589981</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>169.9067907798016</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410584</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628807</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
-        <v>43.28534947792182</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>583973.8707750981</v>
+        <v>507466.4426494146</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>526531.3377790288</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13255431.82224745</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7350793.044111143</v>
+        <v>8420507.108337246</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.95566939920795</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>157.6032867115065</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>127.1051815266449</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>8.831844153734401</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,55 +1305,55 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0311969618593</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>244.5627323611424</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.9423900629774</v>
+        <v>44.28752627203198</v>
       </c>
     </row>
     <row r="12">
@@ -1454,22 +1454,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>109.2771290853448</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>89.12455904281175</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>168.7756050755995</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>137.081565665098</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,22 +1615,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.18893536493745</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.97940549761116</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.6908602868995</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>78.78677906303216</v>
+        <v>61.42221998250886</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703753</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
-        <v>170.7637213332854</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9652070090748</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9381254702172</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>86.88462298447489</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>233.3621191562036</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>127.0354994972995</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>276.1565137023555</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5079271034444</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268739</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037957</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>181.8348503138909</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>162.3364906735237</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.203367682519206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>276.1565137023555</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>278.0574818202348</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>276.1565137023555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>276.1565137023555</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>102.2133755837553</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>208.731143873963</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>13.7210176553111</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>175.1311939478779</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>197.8418203537997</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>136.8730739824627</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.553842565068801</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.9468465755251</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>345.6502227066185</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>206.1608002224379</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>373.7512243215244</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>221.8199080766634</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.84244993117463</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>94.63926978364034</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>153.5834243250311</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>280.3408772460427</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,10 +3319,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>91.29474423337632</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>244.4268842305178</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
         <v>61.42221998250818</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>6.596015618368514</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>204.7499446328832</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>7.130758887765173</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>307.9895902233669</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>145.5687411441663</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>15.5884044422861</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>211.1912218090191</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>263.8291486820129</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>206.0978190620145</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>485.167420504237</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>485.167420504237</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4655,7 +4655,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>613.2059550252818</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>804.8619164081044</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>804.8619164081044</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>569.7098081763618</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>569.7098081763618</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4749,10 +4749,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C9" t="n">
-        <v>795.8418184905681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H9" t="n">
         <v>109.5807722530562</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.56501858889139</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="C11" t="n">
-        <v>19.56501858889139</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D11" t="n">
-        <v>19.56501858889139</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E11" t="n">
-        <v>19.56501858889139</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F11" t="n">
-        <v>19.56501858889139</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>19.56501858889139</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>19.56501858889139</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J11" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>124.4399474973462</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L11" t="n">
-        <v>306.8231980260855</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M11" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P11" t="n">
-        <v>978.2509294445696</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>978.2509294445697</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>978.2509294445697</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>752.9668921093582</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U11" t="n">
-        <v>505.9338291183053</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V11" t="n">
-        <v>258.9007661272524</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="W11" t="n">
-        <v>258.9007661272524</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="X11" t="n">
-        <v>258.9007661272524</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.56501858889139</v>
+        <v>2124.989074136616</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>394.423793454015</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>219.970764172888</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>109.5898257028427</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>109.5898257028427</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>109.5898257028427</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>109.5898257028427</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5898257028427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J12" t="n">
-        <v>19.56501858889139</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>146.1858617037014</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L12" t="n">
-        <v>377.8476075409625</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M12" t="n">
-        <v>377.8476075409625</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>481.6032601595283</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>723.7203651970593</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>907.8577401332359</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q12" t="n">
-        <v>978.2509294445697</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>978.2509294445697</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>978.2509294445697</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>978.2509294445697</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>978.2509294445697</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>978.2509294445697</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>978.2509294445697</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>770.3994292390369</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>562.639130474083</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K13" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L13" t="n">
-        <v>47.85425064936706</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>88.07040250863014</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O13" t="n">
-        <v>158.0312465334349</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P13" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q13" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R13" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S13" t="n">
-        <v>158.0312465334349</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T13" t="n">
-        <v>158.0312465334349</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="U13" t="n">
-        <v>158.0312465334349</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V13" t="n">
-        <v>19.56501858889139</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.0988920136273</v>
+        <v>920.5121489496516</v>
       </c>
       <c r="C14" t="n">
-        <v>291.0988920136273</v>
+        <v>920.5121489496516</v>
       </c>
       <c r="D14" t="n">
-        <v>291.0988920136273</v>
+        <v>920.5121489496516</v>
       </c>
       <c r="E14" t="n">
-        <v>291.0988920136273</v>
+        <v>534.7238963514073</v>
       </c>
       <c r="F14" t="n">
-        <v>291.0988920136273</v>
+        <v>534.7238963514073</v>
       </c>
       <c r="G14" t="n">
-        <v>291.0988920136273</v>
+        <v>116.7600882495942</v>
       </c>
       <c r="H14" t="n">
-        <v>25.19784761800413</v>
+        <v>116.7600882495942</v>
       </c>
       <c r="I14" t="n">
-        <v>25.19784761800413</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J14" t="n">
-        <v>21.05936271613335</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K14" t="n">
-        <v>135.7250809573684</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>330.2546714142364</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
-        <v>563.3128681098028</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>785.5101925369336</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>950.1371873885148</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P14" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>1035.817221162616</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>1035.817221162616</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>810.8769582465558</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U14" t="n">
-        <v>556.9999364092505</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V14" t="n">
-        <v>291.0988920136273</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W14" t="n">
-        <v>291.0988920136273</v>
+        <v>2070.717079250665</v>
       </c>
       <c r="X14" t="n">
-        <v>291.0988920136273</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="Y14" t="n">
-        <v>291.0988920136273</v>
+        <v>1307.111989013773</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>352.2090288979655</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C15" t="n">
-        <v>352.2090288979655</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D15" t="n">
-        <v>352.2090288979655</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E15" t="n">
-        <v>352.2090288979655</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F15" t="n">
-        <v>352.2090288979655</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G15" t="n">
-        <v>213.52820396898</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H15" t="n">
-        <v>100.6419678303073</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I15" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J15" t="n">
-        <v>21.05936271613335</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>21.05936271613335</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L15" t="n">
-        <v>21.05936271613335</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M15" t="n">
-        <v>264.2940185443786</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>524.9036321565288</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O15" t="n">
-        <v>785.316696249021</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P15" t="n">
-        <v>977.3180709271197</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q15" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>954.9030226480438</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>782.4144152406848</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>580.4293576557607</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>352.2090288979655</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V15" t="n">
-        <v>352.2090288979655</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>352.2090288979655</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X15" t="n">
-        <v>352.2090288979655</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y15" t="n">
-        <v>352.2090288979655</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.05936271613335</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="C16" t="n">
-        <v>21.05936271613335</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="D16" t="n">
-        <v>21.05936271613335</v>
+        <v>288.5951747571384</v>
       </c>
       <c r="E16" t="n">
-        <v>21.05936271613335</v>
+        <v>288.5951747571384</v>
       </c>
       <c r="F16" t="n">
-        <v>21.05936271613335</v>
+        <v>141.705227259228</v>
       </c>
       <c r="G16" t="n">
-        <v>21.05936271613335</v>
+        <v>141.705227259228</v>
       </c>
       <c r="H16" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I16" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J16" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K16" t="n">
-        <v>21.05936271613335</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L16" t="n">
-        <v>54.48163939360305</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>100.1098670955241</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
-        <v>150.08777394865</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O16" t="n">
-        <v>180.2341645716486</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P16" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R16" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S16" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T16" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U16" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V16" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W16" t="n">
-        <v>21.05936271613335</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="X16" t="n">
-        <v>21.05936271613335</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.05936271613335</v>
+        <v>438.7118141694741</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.09252109618844</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="C17" t="n">
-        <v>22.09252109618844</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="D17" t="n">
-        <v>22.09252109618844</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>22.09252109618844</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>22.09252109618844</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618846</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823542</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901066</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>962.1762753293418</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>962.1762753293418</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>833.8575889684332</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U17" t="n">
-        <v>579.9844679696339</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V17" t="n">
-        <v>301.0384945329112</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W17" t="n">
-        <v>22.09252109618844</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X17" t="n">
-        <v>22.09252109618844</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.09252109618844</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.40666688016</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>222.40666688016</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>222.40666688016</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>222.40666688016</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>222.40666688016</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>222.40666688016</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>109.772397078701</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>159.4923828364511</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L18" t="n">
-        <v>405.6478494291521</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M18" t="n">
-        <v>555.4329354292296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>828.8278839945615</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>828.8278839945615</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>1025.71200399185</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>1008.180757940352</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>836.1767451915302</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>634.2968452196395</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
-        <v>406.0782328537872</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>222.40666688016</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>222.40666688016</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>222.40666688016</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>222.40666688016</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>191.7165880308942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>191.7165880308942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>191.7165880308942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>191.7165880308942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>191.7165880308942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492715</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160687</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S19" t="n">
-        <v>198.9927170031359</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="T19" t="n">
-        <v>198.9927170031359</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U19" t="n">
-        <v>198.9927170031359</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V19" t="n">
-        <v>198.9927170031359</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W19" t="n">
-        <v>198.9927170031359</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>198.9927170031359</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.7165880308942</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>579.9844679696339</v>
+        <v>1549.547090562792</v>
       </c>
       <c r="C20" t="n">
-        <v>579.9844679696339</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>579.9844679696339</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>579.9844679696339</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>301.0384945329112</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618853</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>142.8373253438684</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>344.908559541287</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
-        <v>586.3582880173958</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823544</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901065</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>962.1762753293418</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>962.1762753293418</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>858.9304414063566</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>858.9304414063566</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V20" t="n">
-        <v>858.9304414063566</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W20" t="n">
-        <v>858.9304414063566</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="X20" t="n">
-        <v>858.9304414063566</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="Y20" t="n">
-        <v>858.9304414063566</v>
+        <v>1936.146930626914</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>196.5455503773155</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>22.09252109618844</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>22.09252109618844</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>22.09252109618844</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>22.09252109618844</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618844</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618844</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>45.1838775027733</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>291.3393440954743</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>564.7342926608062</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>838.1292412261381</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>1104.626054809422</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>1104.626054809422</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>1104.626054809422</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
-        <v>893.7865155427926</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>658.6344073110499</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>404.3970505828483</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>196.5455503773155</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>196.5455503773155</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.09252109618844</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="C22" t="n">
-        <v>22.09252109618844</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="D22" t="n">
-        <v>22.09252109618844</v>
+        <v>67.80259561360799</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618844</v>
+        <v>67.80259561360799</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>58.70189726492715</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6904745160687</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618844</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C23" t="n">
-        <v>825.2129885066836</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D23" t="n">
-        <v>825.2129885066836</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>825.2129885066836</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>825.2129885066836</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>407.2491804048705</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2558.893460732907</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2558.893460732907</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2305.131675370998</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>1974.068788027427</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748109</v>
+        <v>1621.300132757313</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487029</v>
+        <v>1247.834374496234</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>857.6950425204218</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6089,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>723.5291432316174</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>509.2407200497801</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V25" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9325327183818</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1108.365917331524</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C26" t="n">
-        <v>739.4034003911122</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="D26" t="n">
-        <v>381.1377017843616</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312743</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W26" t="n">
-        <v>1759.555763042629</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X26" t="n">
-        <v>1386.090004781549</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y26" t="n">
-        <v>1386.090004781549</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>210.7222632714563</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1485.892406545185</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C29" t="n">
-        <v>1116.929889604773</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D29" t="n">
-        <v>758.6641909980228</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E29" t="n">
-        <v>758.6641909980228</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F29" t="n">
-        <v>758.6641909980228</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6542,7 +6542,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>266.206002764199</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>632.5337622027571</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U31" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1219.679656148628</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C32" t="n">
-        <v>850.7171392082163</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082163</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2310.8081418174</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2310.8081418174</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>1979.74525447383</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1979.74525447383</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1606.27949621275</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y32" t="n">
-        <v>1606.27949621275</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>2413.976487739392</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V34" t="n">
-        <v>2159.291999533505</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1610.120910258947</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C35" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
         <v>882.8926947117852</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2373.726000495839</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2373.726000495839</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="V35" t="n">
-        <v>2373.726000495839</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="W35" t="n">
-        <v>2373.726000495839</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X35" t="n">
-        <v>2000.260242234759</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y35" t="n">
-        <v>1610.120910258947</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7019,40 +7019,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.7222632714563</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C37" t="n">
-        <v>210.7222632714563</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>60.60562385912053</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694736</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X37" t="n">
-        <v>210.7222632714563</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.7222632714563</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1194.175505447095</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>825.2129885066836</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>825.2129885066836</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>825.2129885066836</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>414.227083717076</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>414.227083717076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224076</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748109</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487029</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.775345511217</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7262,43 +7262,43 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>211.647186529604</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>211.647186529604</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>211.647186529604</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1995.909162857192</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C41" t="n">
         <v>1626.94664591678</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7441,22 +7441,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2331.47529152143</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.009759042411</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
+        <v>53.94298182036423</v>
+      </c>
+      <c r="J42" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J42" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>184.2708856551153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1526.329725433337</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C44" t="n">
-        <v>1157.367208492925</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D44" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E44" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2210.161268047022</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V44" t="n">
-        <v>1879.098380703451</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W44" t="n">
-        <v>1526.329725433337</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X44" t="n">
-        <v>1526.329725433337</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y44" t="n">
-        <v>1526.329725433337</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>312.5030352242461</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,16 +8777,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>140.1317786452013</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>234.0901525809383</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>385.2788254813443</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415599</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>127.8064787429919</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>375.2833119014001</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>381.7094952808121</v>
+        <v>359.9065542451762</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>119.7207117878867</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>274.3455134968399</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273546</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7207117878867</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>149.0021003118939</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.2039605324505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>387.9064735273546</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938572</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10430,7 +10430,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22597,19 +22597,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>59.4893961654308</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.5921429795728</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>42.56144198331515</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22989,13 +22989,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>20.33988403799388</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>103.4036000827621</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23156,13 +23156,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.2879682170718</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>339.3235460419765</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>208.6835142066282</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.781739002849008</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>83.18952610899248</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>149.2955485930762</v>
+        <v>341.9504123840216</v>
       </c>
     </row>
     <row r="12">
@@ -23342,19 +23342,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>38.16793647929391</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9843543597988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>155.2512431493756</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>92.89079271141465</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K13" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,28 +23457,28 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.60728995481479</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R13" t="n">
-        <v>176.9955073465141</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>223.9011423785076</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9172826158254</v>
+        <v>56.25950038248473</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3186679929276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>115.05607765873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.2102214038314</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>75.28528753921148</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>206.9091621893709</v>
+        <v>89.74238087992374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>127.0781972668589</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>206.9118586999128</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>64.51022451846802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.905560825257467</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23658,28 +23658,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9494798159088</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>161.8582038473137</v>
+        <v>69.28626585732023</v>
       </c>
       <c r="I16" t="n">
-        <v>154.2024705022107</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839141</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K16" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.68702246598916</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R16" t="n">
-        <v>175.4274210366964</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>63.45830508392203</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>227.7682732010226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>121.3209224644793</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>415.1619485273195</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>338.0329468943008</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>95.44404627266915</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>73.08445501505753</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>50.96573683553436</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K19" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.87383288310646</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R19" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>222.9160118599466</v>
+        <v>49.80904827649522</v>
       </c>
       <c r="T19" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.3812856695756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.5773279611251</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>87.21540995077277</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>130.719532039356</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>139.005434824964</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>338.0329468943008</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>120.2661701862133</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>17.20528236823077</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,28 +24132,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>131.7000303676201</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>111.3918043887131</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>126.0809524105575</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>37.54263882650881</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>142.1113494150891</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>107.7869950879555</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>36.28014736564324</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.62049154535643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>12.42385312965692</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>8.982617341956143</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>191.9642619441316</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>61.59151271539454</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24888,19 +24888,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>130.3958356744439</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>62.86489603262666</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25095,7 +25095,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25128,16 +25128,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>5.940996995934995</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>125.1535761242815</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>6.797283277771527</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>139.8379470282007</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25365,7 +25365,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3082678822158</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>119.172828131474</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>379.1071797682884</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25602,10 +25602,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>69.58249272689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.74425144011371</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>105.655426364123</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>151.6584166563417</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,7 +25806,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>40.03294569927016</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>122.4087899740406</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26079,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>80.1840551799632</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>476871.2122225854</v>
+        <v>812885.4966139373</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493446.8095253498</v>
+        <v>812885.4966139373</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>504035.3525623053</v>
+        <v>812885.4966139373</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>504035.3525623052</v>
+        <v>812885.4966139373</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812885.4966139373</v>
+        <v>812885.4966139372</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812885.4966139371</v>
+        <v>812885.4966139372</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812885.4966139372</v>
+        <v>812885.4966139373</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812885.4966139373</v>
+        <v>812885.4966139372</v>
       </c>
     </row>
     <row r="15">
@@ -26322,16 +26322,16 @@
         <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>125490.1462622122</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="F2" t="n">
-        <v>130005.1129387483</v>
+        <v>216864.4575118183</v>
       </c>
       <c r="G2" t="n">
-        <v>132886.3748292383</v>
+        <v>216864.4575118183</v>
       </c>
       <c r="H2" t="n">
-        <v>132886.3748292383</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="I2" t="n">
         <v>216864.4575118182</v>
@@ -26340,7 +26340,7 @@
         <v>216864.4575118182</v>
       </c>
       <c r="K2" t="n">
-        <v>216864.4575118182</v>
+        <v>216864.4575118183</v>
       </c>
       <c r="L2" t="n">
         <v>216864.4575118182</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4011.079628431056</v>
+        <v>432846.1740429963</v>
       </c>
       <c r="F3" t="n">
-        <v>20638.9322907371</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12875.63425019409</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>363855.276088607</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>884.2863098579609</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
-        <v>4575.065300662412</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3107.882466482935</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16922.92270143587</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>16958.01308307726</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>16991.84893966586</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>16991.84893966586</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
         <v>18228.92756966326</v>
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>14949.50433863014</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="F5" t="n">
-        <v>16506.80740683336</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26499,13 +26499,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21344.88553779098</v>
+        <v>-33562.8961578314</v>
       </c>
       <c r="C6" t="n">
-        <v>59424.54599375679</v>
+        <v>47206.53537371634</v>
       </c>
       <c r="D6" t="n">
-        <v>59424.54599375679</v>
+        <v>47206.53537371632</v>
       </c>
       <c r="E6" t="n">
-        <v>89606.63959371518</v>
+        <v>-289510.5359100701</v>
       </c>
       <c r="F6" t="n">
-        <v>75901.36015810061</v>
+        <v>143335.6381329263</v>
       </c>
       <c r="G6" t="n">
-        <v>85465.11212259816</v>
+        <v>143335.6381329263</v>
       </c>
       <c r="H6" t="n">
-        <v>98340.74637279226</v>
+        <v>143335.6381329263</v>
       </c>
       <c r="I6" t="n">
-        <v>-214451.2242098615</v>
+        <v>143335.6381329262</v>
       </c>
       <c r="J6" t="n">
-        <v>86344.10927963925</v>
+        <v>80275.69553382002</v>
       </c>
       <c r="K6" t="n">
-        <v>149404.0518787454</v>
+        <v>143335.6381329263</v>
       </c>
       <c r="L6" t="n">
-        <v>149404.0518787454</v>
+        <v>143335.6381329263</v>
       </c>
       <c r="M6" t="n">
-        <v>148519.7655688875</v>
+        <v>35362.27745886811</v>
       </c>
       <c r="N6" t="n">
-        <v>144828.986578083</v>
+        <v>143335.6381329262</v>
       </c>
       <c r="O6" t="n">
-        <v>146296.1694122625</v>
+        <v>143335.6381329262</v>
       </c>
       <c r="P6" t="n">
-        <v>149404.0518787455</v>
+        <v>143335.6381329262</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01338268678962</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="F4" t="n">
-        <v>263.2420339516669</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26819,13 +26819,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12.00787803233572</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>342.7224034979613</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.548443483483368</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="F4" t="n">
-        <v>18.67930159052446</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.548443483483254</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
-        <v>18.67930159052457</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.91447975068849</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.548443483483368</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
-        <v>18.67930159052446</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01476929806328569</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1512560737906247</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5693933635848223</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J11" t="n">
-        <v>1.253525711498795</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>1.878710098517679</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>2.330706004121959</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>2.593359508554916</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N11" t="n">
-        <v>2.635322776677227</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O11" t="n">
-        <v>2.488460569060429</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
-        <v>2.123843523123063</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.594918036231644</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9277519194678707</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3365553796171231</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06465260227203316</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07631930274452442</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2720738086033228</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>1.276043491891533</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>1.715797948395859</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>2.002255276817064</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05524901609789</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O12" t="n">
-        <v>1.880151324242605</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
-        <v>1.508987194773435</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.008717977782306</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4906339916673424</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1467812203102001</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03185169810273293</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U12" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05890226081296705</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1992317778827147</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4683874052581232</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7697043897645381</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9849566189522113</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>1.038498653576677</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>1.013805476753246</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O13" t="n">
-        <v>0.936413446952977</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8012634742900949</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5547532968795902</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2978840306553525</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1154556584646807</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02830681245612933</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09251611130367678</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>0.94748062488878</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I14" t="n">
-        <v>3.566727381035002</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760444</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324508</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>14.59973623455499</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>16.24501962895175</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N14" t="n">
-        <v>16.50788103019332</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O14" t="n">
-        <v>15.58792394841738</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
-        <v>13.30393245060786</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544932</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679592</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S14" t="n">
-        <v>2.108210886332537</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4049892772318453</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U14" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4780704592104787</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I15" t="n">
-        <v>1.704292963125458</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J15" t="n">
-        <v>4.676710155246559</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>7.993242550750314</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>10.74790103688226</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>12.54229356430034</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>12.87425075418809</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77742425104034</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
-        <v>9.452421277523079</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.318693299210613</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>3.073372125605603</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9194497705523959</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1995216857467891</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U15" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3689686601259058</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248004425047542</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J16" t="n">
-        <v>2.934017658281358</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166741</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L16" t="n">
-        <v>6.169850171471433</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988742</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>6.35056181584803</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150903</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P16" t="n">
-        <v>5.019181037131949</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705232</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R16" t="n">
-        <v>1.865970340473138</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S16" t="n">
-        <v>0.723223846075011</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588708</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I17" t="n">
-        <v>5.42776745276012</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470702</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>8.84383625587038</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>0.616303794162698</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520189</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727679</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779991</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358773</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>19.08658709192331</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833409</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689049</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164377</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263571</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623704</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174389</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170847</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894685</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>9.89953440294882</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394052</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179687</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938414</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587926</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>5.42776745276012</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21755819470702</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>8.84383625587038</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>0.616303794162698</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7275171330520189</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>2.593555628727679</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779991</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>16.35591992358773</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>19.08658709192331</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>19.59175225833409</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164377</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263571</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623704</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174389</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170847</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894685</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>9.89953440294882</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394052</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179687</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938414</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.288210368587926</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>169.9067907798016</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>105.9342716247019</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N11" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
-        <v>92.68955593933616</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K12" t="n">
-        <v>127.8998415301111</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>234.0017634719808</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>104.8036895137028</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O12" t="n">
-        <v>244.5627323611424</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P12" t="n">
-        <v>185.9973484203803</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.10423162760989</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L13" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M13" t="n">
-        <v>40.62237561541726</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>115.8239578194293</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>196.4945358150182</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>235.4123198945115</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N14" t="n">
-        <v>224.4417418455866</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>166.289893789476</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
-        <v>103.869644866821</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>245.6915715436821</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>263.2420339516669</v>
+        <v>439.883913335513</v>
       </c>
       <c r="O15" t="n">
-        <v>263.0434990833254</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P15" t="n">
-        <v>193.94078250313</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.41420694903819</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L16" t="n">
-        <v>33.75987543178757</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M16" t="n">
-        <v>46.08911889082933</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>50.48273419507662</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>30.45089961919058</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>2.297740302025437</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N17" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424828</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.7877391315785</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L18" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>151.2980666667449</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023555</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P18" t="n">
-        <v>198.8728484821096</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.71116244199196</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M19" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831902</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424828</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>23.3246024308938</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023555</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>276.1565137023555</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>269.1887005891756</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831902</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37876,10 +37876,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
